--- a/input_data/data_errors/3_cenarios_e_referencia_temporal/referencia_temporal.xlsx
+++ b/input_data/data_errors/3_cenarios_e_referencia_temporal/referencia_temporal.xlsx
@@ -28,7 +28,7 @@
     <t>Tempo Presente</t>
   </si>
   <si>
-    <t>Década de 2030</t>
+    <t>Déccadda de 2030</t>
   </si>
   <si>
     <t>Década de 2050</t>
@@ -647,7 +647,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="134.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="9"/>
       <c r="B8" s="5"/>
       <c r="C8" s="10"/>
@@ -666,7 +666,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="9"/>
       <c r="B9" s="5"/>
       <c r="C9" s="10"/>

--- a/input_data/data_errors/3_cenarios_e_referencia_temporal/referencia_temporal.xlsx
+++ b/input_data/data_errors/3_cenarios_e_referencia_temporal/referencia_temporal.xlsx
@@ -25,13 +25,13 @@
     <t>simbolo</t>
   </si>
   <si>
-    <t>Tempo Presente</t>
+    <t>Tempo Presente.</t>
   </si>
   <si>
     <t>Déccadda de 2030</t>
   </si>
   <si>
-    <t>Década de 2050</t>
+    <t>Década de 2050.</t>
   </si>
 </sst>
 </file>

--- a/input_data/data_errors/3_cenarios_e_referencia_temporal/referencia_temporal.xlsx
+++ b/input_data/data_errors/3_cenarios_e_referencia_temporal/referencia_temporal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>nome</t>
   </si>
@@ -591,9 +591,15 @@
       <c r="Q4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="8">
+        <v>2050</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2050</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -685,7 +691,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="72.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="9"/>
       <c r="B10" s="5"/>
       <c r="C10" s="10"/>
@@ -704,7 +710,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="9"/>
       <c r="B11" s="5"/>
       <c r="C11" s="10"/>
@@ -723,7 +729,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="67.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="9"/>
       <c r="B12" s="5"/>
       <c r="C12" s="10"/>

--- a/input_data/data_errors/3_cenarios_e_referencia_temporal/referencia_temporal.xlsx
+++ b/input_data/data_errors/3_cenarios_e_referencia_temporal/referencia_temporal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>nome</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Década de 2050.</t>
+  </si>
+  <si>
+    <t>2050B</t>
   </si>
 </sst>
 </file>
@@ -597,8 +600,8 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6">
-        <v>2050</v>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -748,7 +751,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="59.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="9"/>
       <c r="B13" s="5"/>
       <c r="C13" s="10"/>
@@ -767,7 +770,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="9"/>
       <c r="B14" s="5"/>
       <c r="C14" s="10"/>
@@ -786,7 +789,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A15" s="11"/>
       <c r="B15" s="5"/>
       <c r="C15" s="10"/>
@@ -805,7 +808,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A16" s="11"/>
       <c r="B16" s="5"/>
       <c r="C16" s="10"/>
@@ -824,7 +827,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A17" s="11"/>
       <c r="B17" s="5"/>
       <c r="C17" s="10"/>
